--- a/Code/Results/Cases/Case_3_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.82732853327359</v>
+        <v>11.12720079081461</v>
       </c>
       <c r="C2">
-        <v>12.39465492200242</v>
+        <v>7.389495610375701</v>
       </c>
       <c r="D2">
-        <v>8.193327089733577</v>
+        <v>11.64418014807944</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.64805567564261</v>
+        <v>27.40736469037398</v>
       </c>
       <c r="G2">
-        <v>20.1129193533437</v>
+        <v>24.1331895144116</v>
       </c>
       <c r="H2">
-        <v>7.842585011898661</v>
+        <v>13.06662984721089</v>
       </c>
       <c r="I2">
-        <v>10.72861187591917</v>
+        <v>18.15780059896577</v>
       </c>
       <c r="J2">
-        <v>6.627153595472757</v>
+        <v>11.22194593619614</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.67176598331235</v>
+        <v>16.44688816836023</v>
       </c>
       <c r="N2">
-        <v>11.70261675630426</v>
+        <v>16.81516471214711</v>
       </c>
       <c r="O2">
-        <v>12.72519454705764</v>
+        <v>19.27898093677833</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.70037945414298</v>
+        <v>10.60478074335579</v>
       </c>
       <c r="C3">
-        <v>11.6682972649351</v>
+        <v>6.993795040531849</v>
       </c>
       <c r="D3">
-        <v>7.95052272630437</v>
+        <v>11.62785071394849</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.18660745307925</v>
+        <v>27.42860695487765</v>
       </c>
       <c r="G3">
-        <v>19.40876448198797</v>
+        <v>24.10620001714309</v>
       </c>
       <c r="H3">
-        <v>7.846270429337203</v>
+        <v>13.10498417423351</v>
       </c>
       <c r="I3">
-        <v>10.88980265472591</v>
+        <v>18.2494845832875</v>
       </c>
       <c r="J3">
-        <v>6.624369912826271</v>
+        <v>11.24969429818938</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.89569763412756</v>
+        <v>16.28293413478651</v>
       </c>
       <c r="N3">
-        <v>11.78511837478531</v>
+        <v>16.85101650653628</v>
       </c>
       <c r="O3">
-        <v>12.57991292127097</v>
+        <v>19.32683003109261</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.96779316092336</v>
+        <v>10.27091962452397</v>
       </c>
       <c r="C4">
-        <v>11.19799239138242</v>
+        <v>6.737780383668395</v>
       </c>
       <c r="D4">
-        <v>7.801652061168986</v>
+        <v>11.61978239228317</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.91570947063609</v>
+        <v>27.44883482000672</v>
       </c>
       <c r="G4">
-        <v>18.98789905854818</v>
+        <v>24.09862162478185</v>
       </c>
       <c r="H4">
-        <v>7.85410690673071</v>
+        <v>13.13077493048476</v>
       </c>
       <c r="I4">
-        <v>10.99850550494456</v>
+        <v>18.30957062600028</v>
       </c>
       <c r="J4">
-        <v>6.626489693782382</v>
+        <v>11.26836078033444</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.40037909658653</v>
+        <v>16.18378000705099</v>
       </c>
       <c r="N4">
-        <v>11.83921009274467</v>
+        <v>16.87468088012544</v>
       </c>
       <c r="O4">
-        <v>12.50200860882791</v>
+        <v>19.36082308212669</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.65904565984468</v>
+        <v>10.13174217887189</v>
       </c>
       <c r="C5">
-        <v>11.00028102594647</v>
+        <v>6.63022875097079</v>
       </c>
       <c r="D5">
-        <v>7.741126194194836</v>
+        <v>11.61698971450644</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.80853701532792</v>
+        <v>27.45888277783808</v>
       </c>
       <c r="G5">
-        <v>18.81953037328365</v>
+        <v>24.0977957766988</v>
       </c>
       <c r="H5">
-        <v>7.858655949606859</v>
+        <v>13.14184804651885</v>
       </c>
       <c r="I5">
-        <v>11.04513810161591</v>
+        <v>18.3350090767698</v>
       </c>
       <c r="J5">
-        <v>6.628289436611951</v>
+        <v>11.27637709800094</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.19401492271838</v>
+        <v>16.14379333857412</v>
       </c>
       <c r="N5">
-        <v>11.86210120197774</v>
+        <v>16.88474019285263</v>
       </c>
       <c r="O5">
-        <v>12.47305158783039</v>
+        <v>19.37583291761479</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.60716196039639</v>
+        <v>10.10844840872721</v>
       </c>
       <c r="C6">
-        <v>10.96708731398274</v>
+        <v>6.612177151178381</v>
       </c>
       <c r="D6">
-        <v>7.731086997570108</v>
+        <v>11.616555980661</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.79093817129751</v>
+        <v>27.46066017651241</v>
       </c>
       <c r="G6">
-        <v>18.79176960870645</v>
+        <v>24.09779526685194</v>
       </c>
       <c r="H6">
-        <v>7.859491843236343</v>
+        <v>13.14372073251805</v>
       </c>
       <c r="I6">
-        <v>11.05301934199826</v>
+        <v>18.3392906496041</v>
       </c>
       <c r="J6">
-        <v>6.628644018913328</v>
+        <v>11.27773293794441</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.15948244058864</v>
+        <v>16.13718003126555</v>
       </c>
       <c r="N6">
-        <v>11.86595305469267</v>
+        <v>16.88643567267202</v>
       </c>
       <c r="O6">
-        <v>12.46841009445051</v>
+        <v>19.37839510875386</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.96367061877476</v>
+        <v>10.26905504889816</v>
       </c>
       <c r="C7">
-        <v>11.1953504285639</v>
+        <v>6.736342870214513</v>
       </c>
       <c r="D7">
-        <v>7.800835103111646</v>
+        <v>11.61974272053536</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.914250948366</v>
+        <v>27.44896302523173</v>
       </c>
       <c r="G7">
-        <v>18.98561534854176</v>
+        <v>24.09860132734798</v>
       </c>
       <c r="H7">
-        <v>7.854162828718188</v>
+        <v>13.13092198662075</v>
       </c>
       <c r="I7">
-        <v>10.9991250946328</v>
+        <v>18.30990984029072</v>
       </c>
       <c r="J7">
-        <v>6.626510211945943</v>
+        <v>11.26846723287996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.39761397982142</v>
+        <v>16.18323898402602</v>
       </c>
       <c r="N7">
-        <v>11.83951539525221</v>
+        <v>16.87481485871959</v>
       </c>
       <c r="O7">
-        <v>12.50160686418917</v>
+        <v>19.36102082756246</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.44718969357906</v>
+        <v>10.94987970007704</v>
       </c>
       <c r="C8">
-        <v>12.14928272759957</v>
+        <v>7.255798672447268</v>
       </c>
       <c r="D8">
-        <v>8.109614823039946</v>
+        <v>11.63814518679444</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.48642738782469</v>
+        <v>27.41319696702788</v>
       </c>
       <c r="G8">
-        <v>19.86789094635676</v>
+        <v>24.12201835341789</v>
       </c>
       <c r="H8">
-        <v>7.842671413446254</v>
+        <v>13.07938908345836</v>
       </c>
       <c r="I8">
-        <v>10.78210112157458</v>
+        <v>18.18862592889294</v>
       </c>
       <c r="J8">
-        <v>6.625382951473292</v>
+        <v>11.2311754906472</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.40819645641747</v>
+        <v>16.39006592140544</v>
       </c>
       <c r="N8">
-        <v>11.73034058941375</v>
+        <v>16.82718410179222</v>
       </c>
       <c r="O8">
-        <v>12.67272804344328</v>
+        <v>19.29452021020377</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03431935409181</v>
+        <v>12.17500887183204</v>
       </c>
       <c r="C9">
-        <v>13.82533217751405</v>
+        <v>8.168876846675474</v>
       </c>
       <c r="D9">
-        <v>8.713249097729372</v>
+        <v>11.68962962009411</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.70258113176708</v>
+        <v>27.40011090401245</v>
       </c>
       <c r="G9">
-        <v>21.67853387753174</v>
+        <v>24.23913301916411</v>
       </c>
       <c r="H9">
-        <v>7.866394501085962</v>
+        <v>12.99613023855865</v>
       </c>
       <c r="I9">
-        <v>10.4391590740017</v>
+        <v>17.98089905676372</v>
       </c>
       <c r="J9">
-        <v>6.654746964365222</v>
+        <v>11.17097157113754</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.33066322732803</v>
+        <v>16.80594192072392</v>
       </c>
       <c r="N9">
-        <v>11.54426396522532</v>
+        <v>16.7468524197598</v>
       </c>
       <c r="O9">
-        <v>13.09979808444544</v>
+        <v>19.20083052657372</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.73995979981098</v>
+        <v>13.00140848277691</v>
       </c>
       <c r="C10">
-        <v>14.93683269749545</v>
+        <v>8.773327179621058</v>
       </c>
       <c r="D10">
-        <v>9.151236417667926</v>
+        <v>11.73663751482245</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.64716276289221</v>
+        <v>27.42527472279616</v>
       </c>
       <c r="G10">
-        <v>23.04457347073743</v>
+        <v>24.36818336804511</v>
       </c>
       <c r="H10">
-        <v>7.914765152110609</v>
+        <v>12.94582961552377</v>
       </c>
       <c r="I10">
-        <v>10.24570187109917</v>
+        <v>17.84667302135396</v>
       </c>
       <c r="J10">
-        <v>6.697185541371686</v>
+        <v>11.13461981572178</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.76302089830939</v>
+        <v>17.11542180135218</v>
       </c>
       <c r="N10">
-        <v>11.42576729704372</v>
+        <v>16.69576186503371</v>
       </c>
       <c r="O10">
-        <v>13.4712607458487</v>
+        <v>19.15451883115161</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.47393432445712</v>
+        <v>13.36030544496446</v>
       </c>
       <c r="C11">
-        <v>15.41639961629752</v>
+        <v>9.033612250373976</v>
       </c>
       <c r="D11">
-        <v>9.348503894016762</v>
+        <v>11.7599664299445</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.08664232820002</v>
+        <v>27.44425255221377</v>
       </c>
       <c r="G11">
-        <v>23.67135288617906</v>
+        <v>24.43608970655631</v>
       </c>
       <c r="H11">
-        <v>7.944060023753257</v>
+        <v>12.92531068216898</v>
       </c>
       <c r="I11">
-        <v>10.17234956763881</v>
+        <v>17.78961198505099</v>
       </c>
       <c r="J11">
-        <v>6.721362303374494</v>
+        <v>11.11979342796482</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.38024249136997</v>
+        <v>17.25656862700702</v>
       </c>
       <c r="N11">
-        <v>11.37609168850536</v>
+        <v>16.6742329188262</v>
       </c>
       <c r="O11">
-        <v>13.65302148439143</v>
+        <v>19.13836458229039</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.74588037658665</v>
+        <v>13.49369224771396</v>
       </c>
       <c r="C12">
-        <v>15.59425698358778</v>
+        <v>9.13004781991258</v>
       </c>
       <c r="D12">
-        <v>9.422863457682716</v>
+        <v>11.76907537912176</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.25436425879356</v>
+        <v>27.45251820007477</v>
       </c>
       <c r="G12">
-        <v>23.90929810946441</v>
+        <v>24.46311116314333</v>
       </c>
       <c r="H12">
-        <v>7.95624704477271</v>
+        <v>12.91788079672308</v>
       </c>
       <c r="I12">
-        <v>10.14685536310593</v>
+        <v>17.76858042197637</v>
       </c>
       <c r="J12">
-        <v>6.731245163242969</v>
+        <v>11.11442496206857</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.60907568137887</v>
+        <v>17.31002796568656</v>
       </c>
       <c r="N12">
-        <v>11.35791438007747</v>
+        <v>16.66632608518435</v>
       </c>
       <c r="O12">
-        <v>13.72369737532959</v>
+        <v>19.13295530337558</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.68757791081199</v>
+        <v>13.46507806070223</v>
       </c>
       <c r="C13">
-        <v>15.55611862045213</v>
+        <v>9.109373600438147</v>
       </c>
       <c r="D13">
-        <v>9.4068648124282</v>
+        <v>11.76710146297644</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.21818609904085</v>
+        <v>27.45069012043845</v>
       </c>
       <c r="G13">
-        <v>23.85802824714888</v>
+        <v>24.45723377466799</v>
       </c>
       <c r="H13">
-        <v>7.953573000494897</v>
+        <v>12.9194658197292</v>
       </c>
       <c r="I13">
-        <v>10.15224156464046</v>
+        <v>17.77308429925145</v>
       </c>
       <c r="J13">
-        <v>6.729083921498333</v>
+        <v>11.11557021745363</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.56000930748241</v>
+        <v>17.29851475559353</v>
       </c>
       <c r="N13">
-        <v>11.36180057282373</v>
+        <v>16.66801804355038</v>
       </c>
       <c r="O13">
-        <v>13.70839381584879</v>
+        <v>19.13408878062587</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.4964274037187</v>
+        <v>13.37133011276505</v>
       </c>
       <c r="C14">
-        <v>15.43110704651697</v>
+        <v>9.041588809554192</v>
       </c>
       <c r="D14">
-        <v>9.35462864380065</v>
+        <v>11.7607103502933</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.10041542614578</v>
+        <v>27.44491096948766</v>
       </c>
       <c r="G14">
-        <v>23.69091770551258</v>
+        <v>24.43828669001617</v>
       </c>
       <c r="H14">
-        <v>7.945040482739453</v>
+        <v>12.92469260104406</v>
       </c>
       <c r="I14">
-        <v>10.17020535198769</v>
+        <v>17.78787015074507</v>
       </c>
       <c r="J14">
-        <v>6.722160634756754</v>
+        <v>11.11934683137387</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.39916656761324</v>
+        <v>17.26096679566851</v>
       </c>
       <c r="N14">
-        <v>11.37458337503764</v>
+        <v>16.67357749744937</v>
       </c>
       <c r="O14">
-        <v>13.65879897997742</v>
+        <v>19.13790536132674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.37856270575578</v>
+        <v>13.31357678519218</v>
       </c>
       <c r="C15">
-        <v>15.35404645009075</v>
+        <v>8.999791003855469</v>
       </c>
       <c r="D15">
-        <v>9.322586450865398</v>
+        <v>11.75683124621954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.02844384638451</v>
+        <v>27.4415114807768</v>
       </c>
       <c r="G15">
-        <v>23.58863079676537</v>
+        <v>24.42685071145308</v>
       </c>
       <c r="H15">
-        <v>7.939957824809833</v>
+        <v>12.92793846901764</v>
       </c>
       <c r="I15">
-        <v>10.18151135868533</v>
+        <v>17.79700198675794</v>
       </c>
       <c r="J15">
-        <v>6.718015482829292</v>
+        <v>11.12169214924558</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.30000966660729</v>
+        <v>17.23796766150607</v>
       </c>
       <c r="N15">
-        <v>11.38249653945027</v>
+        <v>16.67701480675693</v>
       </c>
       <c r="O15">
-        <v>13.62866143769747</v>
+        <v>19.14033536580727</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.69115201377923</v>
+        <v>12.97760464873539</v>
       </c>
       <c r="C16">
-        <v>14.90496759164621</v>
+        <v>8.756019894753539</v>
       </c>
       <c r="D16">
-        <v>9.138299713796577</v>
+        <v>11.73515164071609</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.61862934287679</v>
+        <v>27.42418571816153</v>
       </c>
       <c r="G16">
-        <v>23.00370439829403</v>
+        <v>24.36392934054278</v>
       </c>
       <c r="H16">
-        <v>7.913001268710913</v>
+        <v>12.94721816053137</v>
       </c>
       <c r="I16">
-        <v>10.25080524602878</v>
+        <v>17.85048266297067</v>
       </c>
       <c r="J16">
-        <v>6.69570588525803</v>
+        <v>11.13562317260376</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.72199640725959</v>
+        <v>17.10620121735852</v>
       </c>
       <c r="N16">
-        <v>11.42910096188225</v>
+        <v>16.69720324464404</v>
       </c>
       <c r="O16">
-        <v>13.4596403391423</v>
+        <v>19.15567354869232</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.2587321998897</v>
+        <v>12.76707946225773</v>
       </c>
       <c r="C17">
-        <v>14.62279768997935</v>
+        <v>8.602699794829375</v>
       </c>
       <c r="D17">
-        <v>9.024696808679359</v>
+        <v>11.72234664885523</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.36964923251929</v>
+        <v>27.41548339225243</v>
       </c>
       <c r="G17">
-        <v>22.64611221400077</v>
+        <v>24.32767489718803</v>
       </c>
       <c r="H17">
-        <v>7.898364207392312</v>
+        <v>12.95965114825376</v>
       </c>
       <c r="I17">
-        <v>10.29718937165887</v>
+        <v>17.88431638488784</v>
       </c>
       <c r="J17">
-        <v>6.683286753013512</v>
+        <v>11.14460746367238</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.35863441735269</v>
+        <v>17.02542961621773</v>
       </c>
       <c r="N17">
-        <v>11.45879206827629</v>
+        <v>16.71002640414524</v>
       </c>
       <c r="O17">
-        <v>13.35923304550507</v>
+        <v>19.1663425641225</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.00606669462268</v>
+        <v>12.6443907157478</v>
       </c>
       <c r="C18">
-        <v>14.45804744686913</v>
+        <v>8.51313286423367</v>
       </c>
       <c r="D18">
-        <v>8.959172484147222</v>
+        <v>11.71516491949597</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.22736938446862</v>
+        <v>27.4111871613445</v>
       </c>
       <c r="G18">
-        <v>22.44094800610564</v>
+        <v>24.30768945192238</v>
       </c>
       <c r="H18">
-        <v>7.890628961767312</v>
+        <v>12.96702467654844</v>
       </c>
       <c r="I18">
-        <v>10.32523627003037</v>
+        <v>17.90415298515103</v>
       </c>
       <c r="J18">
-        <v>6.676600499446248</v>
+        <v>11.1499359619656</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.14640064867443</v>
+        <v>16.97900857492306</v>
       </c>
       <c r="N18">
-        <v>11.47626602318772</v>
+        <v>16.71756315686195</v>
       </c>
       <c r="O18">
-        <v>13.30268422378328</v>
+        <v>19.17294148320279</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.9198392410547</v>
+        <v>12.60257790877224</v>
       </c>
       <c r="C19">
-        <v>14.40184445560427</v>
+        <v>8.482570414787762</v>
       </c>
       <c r="D19">
-        <v>8.936957518911406</v>
+        <v>11.71276494532854</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.17935844941871</v>
+        <v>27.40985441920543</v>
       </c>
       <c r="G19">
-        <v>22.37157682569073</v>
+        <v>24.3010721103664</v>
       </c>
       <c r="H19">
-        <v>7.88812595286015</v>
+        <v>12.9695594122428</v>
       </c>
       <c r="I19">
-        <v>10.33496223389869</v>
+        <v>17.91093391935095</v>
       </c>
       <c r="J19">
-        <v>6.674414288780987</v>
+        <v>11.15176774546259</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.07398451787965</v>
+        <v>16.96329879261177</v>
       </c>
       <c r="N19">
-        <v>11.48224973958765</v>
+        <v>16.72014267624058</v>
       </c>
       <c r="O19">
-        <v>13.28374397737006</v>
+        <v>19.17525512825234</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.3051724993387</v>
+        <v>12.78965639067267</v>
       </c>
       <c r="C20">
-        <v>14.65308909194847</v>
+        <v>8.619164077622278</v>
       </c>
       <c r="D20">
-        <v>9.036809403499353</v>
+        <v>11.72369081895219</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.39605845480868</v>
+        <v>27.41633640245032</v>
       </c>
       <c r="G20">
-        <v>22.68412672441746</v>
+        <v>24.33144460712649</v>
       </c>
       <c r="H20">
-        <v>7.899851265591415</v>
+        <v>12.95830461477744</v>
       </c>
       <c r="I20">
-        <v>10.29210888182721</v>
+        <v>17.88067576963624</v>
       </c>
       <c r="J20">
-        <v>6.684561305234843</v>
+        <v>11.14363441023726</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.39764966933392</v>
+        <v>17.034024404658</v>
       </c>
       <c r="N20">
-        <v>11.45559019234041</v>
+        <v>16.70864467611369</v>
       </c>
       <c r="O20">
-        <v>13.36979700497576</v>
+        <v>19.16515896249361</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.5527353175454</v>
+        <v>13.39893503766242</v>
       </c>
       <c r="C21">
-        <v>15.46792753437384</v>
+        <v>9.061556735567409</v>
       </c>
       <c r="D21">
-        <v>9.36998135778161</v>
+        <v>11.76258015739517</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.13497303615986</v>
+        <v>27.44657919350072</v>
       </c>
       <c r="G21">
-        <v>23.73998715468849</v>
+        <v>24.44381658408776</v>
       </c>
       <c r="H21">
-        <v>7.94751665228223</v>
+        <v>12.9231481331422</v>
       </c>
       <c r="I21">
-        <v>10.16486554855272</v>
+        <v>17.78351154004719</v>
       </c>
       <c r="J21">
-        <v>6.724174209062052</v>
+        <v>11.11823087267003</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.44654245063175</v>
+        <v>17.27199560024549</v>
       </c>
       <c r="N21">
-        <v>11.37081134200335</v>
+        <v>16.67193788672397</v>
       </c>
       <c r="O21">
-        <v>13.67331600862095</v>
+        <v>19.13676511445461</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.33317059133442</v>
+        <v>13.78242301369991</v>
       </c>
       <c r="C22">
-        <v>15.97865341740413</v>
+        <v>9.338272944521151</v>
       </c>
       <c r="D22">
-        <v>9.585717381603819</v>
+        <v>11.78959583946547</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.6254343704758</v>
+        <v>27.47263224365168</v>
       </c>
       <c r="G22">
-        <v>24.43347459495274</v>
+        <v>24.52486587078701</v>
       </c>
       <c r="H22">
-        <v>7.985063803541076</v>
+        <v>12.90215437839492</v>
       </c>
       <c r="I22">
-        <v>10.09509879103351</v>
+        <v>17.72336828106204</v>
       </c>
       <c r="J22">
-        <v>6.754317164529356</v>
+        <v>11.10306187135951</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.10354484820859</v>
+        <v>17.42756330293173</v>
       </c>
       <c r="N22">
-        <v>11.3191108448115</v>
+        <v>16.64937983122674</v>
       </c>
       <c r="O22">
-        <v>13.88245024880499</v>
+        <v>19.12233521592976</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.91981989354981</v>
+        <v>13.5791143210183</v>
       </c>
       <c r="C23">
-        <v>15.70806301620665</v>
+        <v>9.191724706735354</v>
       </c>
       <c r="D23">
-        <v>9.470776086619921</v>
+        <v>11.77503241379234</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.3630090101469</v>
+        <v>27.45815344072889</v>
       </c>
       <c r="G23">
-        <v>24.0630844021144</v>
+        <v>24.48091826143631</v>
       </c>
       <c r="H23">
-        <v>7.964424363567399</v>
+        <v>12.9131775741808</v>
       </c>
       <c r="I23">
-        <v>10.13104837664989</v>
+        <v>17.75516011057634</v>
       </c>
       <c r="J23">
-        <v>6.737831208081689</v>
+        <v>11.1110266630578</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.75548288752428</v>
+        <v>17.34454400579622</v>
       </c>
       <c r="N23">
-        <v>11.34635616746183</v>
+        <v>16.66128863870459</v>
       </c>
       <c r="O23">
-        <v>13.76984436781569</v>
+        <v>19.12965869147229</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.28418949353864</v>
+        <v>12.77945451089876</v>
       </c>
       <c r="C24">
-        <v>14.63940222035358</v>
+        <v>8.61172500064245</v>
       </c>
       <c r="D24">
-        <v>9.03133395684169</v>
+        <v>11.72308255851366</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.38411615185774</v>
+        <v>27.41594855447911</v>
       </c>
       <c r="G24">
-        <v>22.66693904161229</v>
+        <v>24.32973764834209</v>
       </c>
       <c r="H24">
-        <v>7.899176852610474</v>
+        <v>12.95891267973836</v>
       </c>
       <c r="I24">
-        <v>10.29440148592821</v>
+        <v>17.88232049217797</v>
       </c>
       <c r="J24">
-        <v>6.683983669153112</v>
+        <v>11.14407381900255</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.3800212562068</v>
+        <v>17.03013864890226</v>
       </c>
       <c r="N24">
-        <v>11.45703650355326</v>
+        <v>16.70926884275918</v>
       </c>
       <c r="O24">
-        <v>13.36501737458457</v>
+        <v>19.1656926199603</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.36881415347817</v>
+        <v>11.85611312416225</v>
       </c>
       <c r="C25">
-        <v>13.392923665802</v>
+        <v>7.933407643657815</v>
       </c>
       <c r="D25">
-        <v>8.550625294754571</v>
+        <v>11.67407314118215</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.36414821308522</v>
+        <v>27.39753941135528</v>
       </c>
       <c r="G25">
-        <v>21.18152574284407</v>
+        <v>24.19985879898531</v>
       </c>
       <c r="H25">
-        <v>7.854738888494671</v>
+        <v>13.01674649344801</v>
       </c>
       <c r="I25">
-        <v>10.52228594371558</v>
+        <v>18.0338677476272</v>
       </c>
       <c r="J25">
-        <v>6.643254874270547</v>
+        <v>11.18587448627938</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.77241888497978</v>
+        <v>16.69257551395255</v>
       </c>
       <c r="N25">
-        <v>11.59149197535183</v>
+        <v>16.76718898545447</v>
       </c>
       <c r="O25">
-        <v>12.97423831035317</v>
+        <v>19.2222297884078</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_187/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_187/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.12720079081461</v>
+        <v>17.82732853327358</v>
       </c>
       <c r="C2">
-        <v>7.389495610375701</v>
+        <v>12.39465492200223</v>
       </c>
       <c r="D2">
-        <v>11.64418014807944</v>
+        <v>8.193327089733492</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.40736469037398</v>
+        <v>19.64805567564269</v>
       </c>
       <c r="G2">
-        <v>24.1331895144116</v>
+        <v>20.11291935334382</v>
       </c>
       <c r="H2">
-        <v>13.06662984721089</v>
+        <v>7.842585011898779</v>
       </c>
       <c r="I2">
-        <v>18.15780059896577</v>
+        <v>10.72861187591925</v>
       </c>
       <c r="J2">
-        <v>11.22194593619614</v>
+        <v>6.627153595472726</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.44688816836023</v>
+        <v>14.67176598331234</v>
       </c>
       <c r="N2">
-        <v>16.81516471214711</v>
+        <v>11.70261675630428</v>
       </c>
       <c r="O2">
-        <v>19.27898093677833</v>
+        <v>12.72519454705776</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.60478074335579</v>
+        <v>16.70037945414302</v>
       </c>
       <c r="C3">
-        <v>6.993795040531849</v>
+        <v>11.6682972649351</v>
       </c>
       <c r="D3">
-        <v>11.62785071394849</v>
+        <v>7.950522726304364</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.42860695487765</v>
+        <v>19.18660745307937</v>
       </c>
       <c r="G3">
-        <v>24.10620001714309</v>
+        <v>19.4087644819882</v>
       </c>
       <c r="H3">
-        <v>13.10498417423351</v>
+        <v>7.846270429337161</v>
       </c>
       <c r="I3">
-        <v>18.2494845832875</v>
+        <v>10.88980265472605</v>
       </c>
       <c r="J3">
-        <v>11.24969429818938</v>
+        <v>6.624369912826252</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.28293413478651</v>
+        <v>13.89569763412756</v>
       </c>
       <c r="N3">
-        <v>16.85101650653628</v>
+        <v>11.78511837478539</v>
       </c>
       <c r="O3">
-        <v>19.32683003109261</v>
+        <v>12.5799129212711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.27091962452397</v>
+        <v>15.96779316092344</v>
       </c>
       <c r="C4">
-        <v>6.737780383668395</v>
+        <v>11.19799239138256</v>
       </c>
       <c r="D4">
-        <v>11.61978239228317</v>
+        <v>7.801652061169088</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.44883482000672</v>
+        <v>18.91570947063603</v>
       </c>
       <c r="G4">
-        <v>24.09862162478185</v>
+        <v>18.98789905854805</v>
       </c>
       <c r="H4">
-        <v>13.13077493048476</v>
+        <v>7.854106906730558</v>
       </c>
       <c r="I4">
-        <v>18.30957062600028</v>
+        <v>10.99850550494445</v>
       </c>
       <c r="J4">
-        <v>11.26836078033444</v>
+        <v>6.626489693782353</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.18378000705099</v>
+        <v>13.40037909658652</v>
       </c>
       <c r="N4">
-        <v>16.87468088012544</v>
+        <v>11.83921009274463</v>
       </c>
       <c r="O4">
-        <v>19.36082308212669</v>
+        <v>12.50200860882778</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.13174217887189</v>
+        <v>15.65904565984477</v>
       </c>
       <c r="C5">
-        <v>6.63022875097079</v>
+        <v>11.00028102594636</v>
       </c>
       <c r="D5">
-        <v>11.61698971450644</v>
+        <v>7.741126194194791</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.45888277783808</v>
+        <v>18.80853701532784</v>
       </c>
       <c r="G5">
-        <v>24.0977957766988</v>
+        <v>18.81953037328356</v>
       </c>
       <c r="H5">
-        <v>13.14184804651885</v>
+        <v>7.858655949606759</v>
       </c>
       <c r="I5">
-        <v>18.3350090767698</v>
+        <v>11.04513810161575</v>
       </c>
       <c r="J5">
-        <v>11.27637709800094</v>
+        <v>6.628289436611922</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.14379333857412</v>
+        <v>13.19401492271838</v>
       </c>
       <c r="N5">
-        <v>16.88474019285263</v>
+        <v>11.86210120197767</v>
       </c>
       <c r="O5">
-        <v>19.37583291761479</v>
+        <v>12.47305158783029</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.10844840872721</v>
+        <v>15.60716196039645</v>
       </c>
       <c r="C6">
-        <v>6.612177151178381</v>
+        <v>10.96708731398251</v>
       </c>
       <c r="D6">
-        <v>11.616555980661</v>
+        <v>7.731086997570076</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.46066017651241</v>
+        <v>18.79093817129747</v>
       </c>
       <c r="G6">
-        <v>24.09779526685194</v>
+        <v>18.79176960870647</v>
       </c>
       <c r="H6">
-        <v>13.14372073251805</v>
+        <v>7.859491843236345</v>
       </c>
       <c r="I6">
-        <v>18.3392906496041</v>
+        <v>11.05301934199824</v>
       </c>
       <c r="J6">
-        <v>11.27773293794441</v>
+        <v>6.628644018913333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.13718003126555</v>
+        <v>13.15948244058863</v>
       </c>
       <c r="N6">
-        <v>16.88643567267202</v>
+        <v>11.86595305469267</v>
       </c>
       <c r="O6">
-        <v>19.37839510875386</v>
+        <v>12.46841009445052</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.26905504889816</v>
+        <v>15.96367061877482</v>
       </c>
       <c r="C7">
-        <v>6.736342870214513</v>
+        <v>11.19535042856383</v>
       </c>
       <c r="D7">
-        <v>11.61974272053536</v>
+        <v>7.800835103111647</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.44896302523173</v>
+        <v>18.91425094836597</v>
       </c>
       <c r="G7">
-        <v>24.09860132734798</v>
+        <v>18.98561534854171</v>
       </c>
       <c r="H7">
-        <v>13.13092198662075</v>
+        <v>7.854162828718191</v>
       </c>
       <c r="I7">
-        <v>18.30990984029072</v>
+        <v>10.99912509463272</v>
       </c>
       <c r="J7">
-        <v>11.26846723287996</v>
+        <v>6.626510211945853</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.18323898402602</v>
+        <v>13.39761397982139</v>
       </c>
       <c r="N7">
-        <v>16.87481485871959</v>
+        <v>11.83951539525218</v>
       </c>
       <c r="O7">
-        <v>19.36102082756246</v>
+        <v>12.50160686418915</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.94987970007704</v>
+        <v>17.44718969357902</v>
       </c>
       <c r="C8">
-        <v>7.255798672447268</v>
+        <v>12.14928272759964</v>
       </c>
       <c r="D8">
-        <v>11.63814518679444</v>
+        <v>8.109614823040005</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.41319696702788</v>
+        <v>19.48642738782473</v>
       </c>
       <c r="G8">
-        <v>24.12201835341789</v>
+        <v>19.86789094635684</v>
       </c>
       <c r="H8">
-        <v>13.07938908345836</v>
+        <v>7.842671413446259</v>
       </c>
       <c r="I8">
-        <v>18.18862592889294</v>
+        <v>10.78210112157459</v>
       </c>
       <c r="J8">
-        <v>11.2311754906472</v>
+        <v>6.625382951473348</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.39006592140544</v>
+        <v>14.4081964564175</v>
       </c>
       <c r="N8">
-        <v>16.82718410179222</v>
+        <v>11.73034058941372</v>
       </c>
       <c r="O8">
-        <v>19.29452021020377</v>
+        <v>12.67272804344329</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.17500887183204</v>
+        <v>20.03431935409176</v>
       </c>
       <c r="C9">
-        <v>8.168876846675474</v>
+        <v>13.8253321775141</v>
       </c>
       <c r="D9">
-        <v>11.68962962009411</v>
+        <v>8.713249097729319</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.40011090401245</v>
+        <v>20.70258113176708</v>
       </c>
       <c r="G9">
-        <v>24.23913301916411</v>
+        <v>21.67853387753186</v>
       </c>
       <c r="H9">
-        <v>12.99613023855865</v>
+        <v>7.866394501085967</v>
       </c>
       <c r="I9">
-        <v>17.98089905676372</v>
+        <v>10.43915907400173</v>
       </c>
       <c r="J9">
-        <v>11.17097157113754</v>
+        <v>6.654746964365195</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.80594192072392</v>
+        <v>16.33066322732803</v>
       </c>
       <c r="N9">
-        <v>16.7468524197598</v>
+        <v>11.54426396522532</v>
       </c>
       <c r="O9">
-        <v>19.20083052657372</v>
+        <v>13.09979808444549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.00140848277691</v>
+        <v>21.73995979981107</v>
       </c>
       <c r="C10">
-        <v>8.773327179621058</v>
+        <v>14.93683269749535</v>
       </c>
       <c r="D10">
-        <v>11.73663751482245</v>
+        <v>9.151236417667914</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.42527472279616</v>
+        <v>21.64716276289224</v>
       </c>
       <c r="G10">
-        <v>24.36818336804511</v>
+        <v>23.04457347073746</v>
       </c>
       <c r="H10">
-        <v>12.94582961552377</v>
+        <v>7.914765152110519</v>
       </c>
       <c r="I10">
-        <v>17.84667302135396</v>
+        <v>10.24570187109909</v>
       </c>
       <c r="J10">
-        <v>11.13461981572178</v>
+        <v>6.697185541371706</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.11542180135218</v>
+        <v>17.7630208983094</v>
       </c>
       <c r="N10">
-        <v>16.69576186503371</v>
+        <v>11.42576729704367</v>
       </c>
       <c r="O10">
-        <v>19.15451883115161</v>
+        <v>13.47126074584865</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.36030544496446</v>
+        <v>22.47393432445721</v>
       </c>
       <c r="C11">
-        <v>9.033612250373976</v>
+        <v>15.41639961629742</v>
       </c>
       <c r="D11">
-        <v>11.7599664299445</v>
+        <v>9.348503894016748</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.44425255221377</v>
+        <v>22.08664232819998</v>
       </c>
       <c r="G11">
-        <v>24.43608970655631</v>
+        <v>23.67135288617906</v>
       </c>
       <c r="H11">
-        <v>12.92531068216898</v>
+        <v>7.944060023753222</v>
       </c>
       <c r="I11">
-        <v>17.78961198505099</v>
+        <v>10.17234956763867</v>
       </c>
       <c r="J11">
-        <v>11.11979342796482</v>
+        <v>6.721362303374442</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.25656862700702</v>
+        <v>18.38024249137</v>
       </c>
       <c r="N11">
-        <v>16.6742329188262</v>
+        <v>11.37609168850529</v>
       </c>
       <c r="O11">
-        <v>19.13836458229039</v>
+        <v>13.6530214843914</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.49369224771396</v>
+        <v>22.74588037658668</v>
       </c>
       <c r="C12">
-        <v>9.13004781991258</v>
+        <v>15.59425698358792</v>
       </c>
       <c r="D12">
-        <v>11.76907537912176</v>
+        <v>9.422863457682707</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.45251820007477</v>
+        <v>22.2543642587936</v>
       </c>
       <c r="G12">
-        <v>24.46311116314333</v>
+        <v>23.90929810946449</v>
       </c>
       <c r="H12">
-        <v>12.91788079672308</v>
+        <v>7.956247044772737</v>
       </c>
       <c r="I12">
-        <v>17.76858042197637</v>
+        <v>10.14685536310599</v>
       </c>
       <c r="J12">
-        <v>11.11442496206857</v>
+        <v>6.731245163242969</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.31002796568656</v>
+        <v>18.6090756813789</v>
       </c>
       <c r="N12">
-        <v>16.66632608518435</v>
+        <v>11.35791438007746</v>
       </c>
       <c r="O12">
-        <v>19.13295530337558</v>
+        <v>13.72369737532963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.46507806070223</v>
+        <v>22.68757791081198</v>
       </c>
       <c r="C13">
-        <v>9.109373600438147</v>
+        <v>15.55611862045207</v>
       </c>
       <c r="D13">
-        <v>11.76710146297644</v>
+        <v>9.406864812428136</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.45069012043845</v>
+        <v>22.21818609904086</v>
       </c>
       <c r="G13">
-        <v>24.45723377466799</v>
+        <v>23.85802824714892</v>
       </c>
       <c r="H13">
-        <v>12.9194658197292</v>
+        <v>7.953573000494949</v>
       </c>
       <c r="I13">
-        <v>17.77308429925145</v>
+        <v>10.1522415646405</v>
       </c>
       <c r="J13">
-        <v>11.11557021745363</v>
+        <v>6.729083921498293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.29851475559353</v>
+        <v>18.56000930748243</v>
       </c>
       <c r="N13">
-        <v>16.66801804355038</v>
+        <v>11.36180057282375</v>
       </c>
       <c r="O13">
-        <v>19.13408878062587</v>
+        <v>13.70839381584883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.37133011276505</v>
+        <v>22.49642740371878</v>
       </c>
       <c r="C14">
-        <v>9.041588809554192</v>
+        <v>15.43110704651682</v>
       </c>
       <c r="D14">
-        <v>11.7607103502933</v>
+        <v>9.354628643800643</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.44491096948766</v>
+        <v>22.10041542614573</v>
       </c>
       <c r="G14">
-        <v>24.43828669001617</v>
+        <v>23.69091770551255</v>
       </c>
       <c r="H14">
-        <v>12.92469260104406</v>
+        <v>7.945040482739421</v>
       </c>
       <c r="I14">
-        <v>17.78787015074507</v>
+        <v>10.17020535198755</v>
       </c>
       <c r="J14">
-        <v>11.11934683137387</v>
+        <v>6.722160634756777</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.26096679566851</v>
+        <v>18.39916656761325</v>
       </c>
       <c r="N14">
-        <v>16.67357749744937</v>
+        <v>11.37458337503758</v>
       </c>
       <c r="O14">
-        <v>19.13790536132674</v>
+        <v>13.65879897997738</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.31357678519218</v>
+        <v>22.37856270575576</v>
       </c>
       <c r="C15">
-        <v>8.999791003855469</v>
+        <v>15.35404645009068</v>
       </c>
       <c r="D15">
-        <v>11.75683124621954</v>
+        <v>9.32258645086532</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.4415114807768</v>
+        <v>22.02844384638455</v>
       </c>
       <c r="G15">
-        <v>24.42685071145308</v>
+        <v>23.58863079676541</v>
       </c>
       <c r="H15">
-        <v>12.92793846901764</v>
+        <v>7.939957824809857</v>
       </c>
       <c r="I15">
-        <v>17.79700198675794</v>
+        <v>10.18151135868536</v>
       </c>
       <c r="J15">
-        <v>11.12169214924558</v>
+        <v>6.718015482829348</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.23796766150607</v>
+        <v>18.30000966660727</v>
       </c>
       <c r="N15">
-        <v>16.67701480675693</v>
+        <v>11.3824965394502</v>
       </c>
       <c r="O15">
-        <v>19.14033536580727</v>
+        <v>13.6286614376975</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.97760464873539</v>
+        <v>21.69115201377932</v>
       </c>
       <c r="C16">
-        <v>8.756019894753539</v>
+        <v>14.90496759164623</v>
       </c>
       <c r="D16">
-        <v>11.73515164071609</v>
+        <v>9.138299713796503</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.42418571816153</v>
+        <v>21.61862934287672</v>
       </c>
       <c r="G16">
-        <v>24.36392934054278</v>
+        <v>23.00370439829402</v>
       </c>
       <c r="H16">
-        <v>12.94721816053137</v>
+        <v>7.913001268710962</v>
       </c>
       <c r="I16">
-        <v>17.85048266297067</v>
+        <v>10.25080524602875</v>
       </c>
       <c r="J16">
-        <v>11.13562317260376</v>
+        <v>6.695705885258028</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.10620121735852</v>
+        <v>17.72199640725962</v>
       </c>
       <c r="N16">
-        <v>16.69720324464404</v>
+        <v>11.42910096188225</v>
       </c>
       <c r="O16">
-        <v>19.15567354869232</v>
+        <v>13.45964033914227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.76707946225773</v>
+        <v>21.25873219988963</v>
       </c>
       <c r="C17">
-        <v>8.602699794829375</v>
+        <v>14.62279768997923</v>
       </c>
       <c r="D17">
-        <v>11.72234664885523</v>
+        <v>9.024696808679341</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.41548339225243</v>
+        <v>21.36964923251942</v>
       </c>
       <c r="G17">
-        <v>24.32767489718803</v>
+        <v>22.64611221400089</v>
       </c>
       <c r="H17">
-        <v>12.95965114825376</v>
+        <v>7.898364207392415</v>
       </c>
       <c r="I17">
-        <v>17.88431638488784</v>
+        <v>10.29718937165905</v>
       </c>
       <c r="J17">
-        <v>11.14460746367238</v>
+        <v>6.683286753013565</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.02542961621773</v>
+        <v>17.35863441735263</v>
       </c>
       <c r="N17">
-        <v>16.71002640414524</v>
+        <v>11.45879206827634</v>
       </c>
       <c r="O17">
-        <v>19.1663425641225</v>
+        <v>13.35923304550519</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.6443907157478</v>
+        <v>21.00606669462267</v>
       </c>
       <c r="C18">
-        <v>8.51313286423367</v>
+        <v>14.45804744686921</v>
       </c>
       <c r="D18">
-        <v>11.71516491949597</v>
+        <v>8.959172484147183</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.4111871613445</v>
+        <v>21.22736938446858</v>
       </c>
       <c r="G18">
-        <v>24.30768945192238</v>
+        <v>22.4409480061056</v>
       </c>
       <c r="H18">
-        <v>12.96702467654844</v>
+        <v>7.890628961767357</v>
       </c>
       <c r="I18">
-        <v>17.90415298515103</v>
+        <v>10.32523627003034</v>
       </c>
       <c r="J18">
-        <v>11.1499359619656</v>
+        <v>6.676600499446221</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.97900857492306</v>
+        <v>17.14640064867443</v>
       </c>
       <c r="N18">
-        <v>16.71756315686195</v>
+        <v>11.47626602318768</v>
       </c>
       <c r="O18">
-        <v>19.17294148320279</v>
+        <v>13.30268422378326</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.60257790877224</v>
+        <v>20.91983924105472</v>
       </c>
       <c r="C19">
-        <v>8.482570414787762</v>
+        <v>14.40184445560433</v>
       </c>
       <c r="D19">
-        <v>11.71276494532854</v>
+        <v>8.936957518911512</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.40985441920543</v>
+        <v>21.17935844941872</v>
       </c>
       <c r="G19">
-        <v>24.3010721103664</v>
+        <v>22.37157682569071</v>
       </c>
       <c r="H19">
-        <v>12.9695594122428</v>
+        <v>7.888125952860143</v>
       </c>
       <c r="I19">
-        <v>17.91093391935095</v>
+        <v>10.33496223389866</v>
       </c>
       <c r="J19">
-        <v>11.15176774546259</v>
+        <v>6.674414288780996</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.96329879261177</v>
+        <v>17.07398451787963</v>
       </c>
       <c r="N19">
-        <v>16.72014267624058</v>
+        <v>11.48224973958763</v>
       </c>
       <c r="O19">
-        <v>19.17525512825234</v>
+        <v>13.28374397737003</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.78965639067267</v>
+        <v>21.3051724993387</v>
       </c>
       <c r="C20">
-        <v>8.619164077622278</v>
+        <v>14.65308909194847</v>
       </c>
       <c r="D20">
-        <v>11.72369081895219</v>
+        <v>9.0368094034993</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.41633640245032</v>
+        <v>21.39605845480872</v>
       </c>
       <c r="G20">
-        <v>24.33144460712649</v>
+        <v>22.68412672441747</v>
       </c>
       <c r="H20">
-        <v>12.95830461477744</v>
+        <v>7.899851265591462</v>
       </c>
       <c r="I20">
-        <v>17.88067576963624</v>
+        <v>10.29210888182733</v>
       </c>
       <c r="J20">
-        <v>11.14363441023726</v>
+        <v>6.684561305234824</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.034024404658</v>
+        <v>17.39764966933393</v>
       </c>
       <c r="N20">
-        <v>16.70864467611369</v>
+        <v>11.45559019234044</v>
       </c>
       <c r="O20">
-        <v>19.16515896249361</v>
+        <v>13.3697970049758</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.39893503766242</v>
+        <v>22.55273531754543</v>
       </c>
       <c r="C21">
-        <v>9.061556735567409</v>
+        <v>15.46792753437378</v>
       </c>
       <c r="D21">
-        <v>11.76258015739517</v>
+        <v>9.369981357781681</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.44657919350072</v>
+        <v>22.13497303615998</v>
       </c>
       <c r="G21">
-        <v>24.44381658408776</v>
+        <v>23.73998715468851</v>
       </c>
       <c r="H21">
-        <v>12.9231481331422</v>
+        <v>7.947516652282236</v>
       </c>
       <c r="I21">
-        <v>17.78351154004719</v>
+        <v>10.16486554855268</v>
       </c>
       <c r="J21">
-        <v>11.11823087267003</v>
+        <v>6.724174209062035</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.27199560024549</v>
+        <v>18.44654245063173</v>
       </c>
       <c r="N21">
-        <v>16.67193788672397</v>
+        <v>11.37081134200334</v>
       </c>
       <c r="O21">
-        <v>19.13676511445461</v>
+        <v>13.67331600862097</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.78242301369991</v>
+        <v>23.33317059133442</v>
       </c>
       <c r="C22">
-        <v>9.338272944521151</v>
+        <v>15.97865341740418</v>
       </c>
       <c r="D22">
-        <v>11.78959583946547</v>
+        <v>9.585717381603837</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.47263224365168</v>
+        <v>22.62543437047586</v>
       </c>
       <c r="G22">
-        <v>24.52486587078701</v>
+        <v>24.43347459495276</v>
       </c>
       <c r="H22">
-        <v>12.90215437839492</v>
+        <v>7.985063803541117</v>
       </c>
       <c r="I22">
-        <v>17.72336828106204</v>
+        <v>10.09509879103357</v>
       </c>
       <c r="J22">
-        <v>11.10306187135951</v>
+        <v>6.754317164529397</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.42756330293173</v>
+        <v>19.10354484820856</v>
       </c>
       <c r="N22">
-        <v>16.64937983122674</v>
+        <v>11.31911084481153</v>
       </c>
       <c r="O22">
-        <v>19.12233521592976</v>
+        <v>13.88245024880502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.5791143210183</v>
+        <v>22.91981989354986</v>
       </c>
       <c r="C23">
-        <v>9.191724706735354</v>
+        <v>15.70806301620667</v>
       </c>
       <c r="D23">
-        <v>11.77503241379234</v>
+        <v>9.470776086619937</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.45815344072889</v>
+        <v>22.36300901014687</v>
       </c>
       <c r="G23">
-        <v>24.48091826143631</v>
+        <v>24.06308440211437</v>
       </c>
       <c r="H23">
-        <v>12.9131775741808</v>
+        <v>7.964424363567367</v>
       </c>
       <c r="I23">
-        <v>17.75516011057634</v>
+        <v>10.13104837664988</v>
       </c>
       <c r="J23">
-        <v>11.1110266630578</v>
+        <v>6.737831208081653</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.34454400579622</v>
+        <v>18.75548288752434</v>
       </c>
       <c r="N23">
-        <v>16.66128863870459</v>
+        <v>11.34635616746183</v>
       </c>
       <c r="O23">
-        <v>19.12965869147229</v>
+        <v>13.76984436781566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.77945451089876</v>
+        <v>21.28418949353859</v>
       </c>
       <c r="C24">
-        <v>8.61172500064245</v>
+        <v>14.63940222035348</v>
       </c>
       <c r="D24">
-        <v>11.72308255851366</v>
+        <v>9.031333956841648</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.41594855447911</v>
+        <v>21.38411615185774</v>
       </c>
       <c r="G24">
-        <v>24.32973764834209</v>
+        <v>22.66693904161227</v>
       </c>
       <c r="H24">
-        <v>12.95891267973836</v>
+        <v>7.899176852610509</v>
       </c>
       <c r="I24">
-        <v>17.88232049217797</v>
+        <v>10.29440148592828</v>
       </c>
       <c r="J24">
-        <v>11.14407381900255</v>
+        <v>6.683983669153022</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.03013864890226</v>
+        <v>17.38002125620682</v>
       </c>
       <c r="N24">
-        <v>16.70926884275918</v>
+        <v>11.45703650355328</v>
       </c>
       <c r="O24">
-        <v>19.1656926199603</v>
+        <v>13.36501737458461</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.85611312416225</v>
+        <v>19.3688141534783</v>
       </c>
       <c r="C25">
-        <v>7.933407643657815</v>
+        <v>13.39292366580215</v>
       </c>
       <c r="D25">
-        <v>11.67407314118215</v>
+        <v>8.550625294754557</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.39753941135528</v>
+        <v>20.3641482130851</v>
       </c>
       <c r="G25">
-        <v>24.19985879898531</v>
+        <v>21.181525742844</v>
       </c>
       <c r="H25">
-        <v>13.01674649344801</v>
+        <v>7.854738888494629</v>
       </c>
       <c r="I25">
-        <v>18.0338677476272</v>
+        <v>10.52228594371546</v>
       </c>
       <c r="J25">
-        <v>11.18587448627938</v>
+        <v>6.643254874270493</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.69257551395255</v>
+        <v>15.77241888497988</v>
       </c>
       <c r="N25">
-        <v>16.76718898545447</v>
+        <v>11.59149197535186</v>
       </c>
       <c r="O25">
-        <v>19.2222297884078</v>
+        <v>12.97423831035306</v>
       </c>
     </row>
   </sheetData>
